--- a/files/excel/imports/Asset.xlsx
+++ b/files/excel/imports/Asset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Code</t>
   </si>
@@ -39,13 +39,61 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>JKT010101</t>
-  </si>
-  <si>
-    <t>Jaket Polos</t>
-  </si>
-  <si>
     <t>Kualitas Oke</t>
+  </si>
+  <si>
+    <t>JKT0125</t>
+  </si>
+  <si>
+    <t>JKT01251</t>
+  </si>
+  <si>
+    <t>JKT01252</t>
+  </si>
+  <si>
+    <t>JKT01253</t>
+  </si>
+  <si>
+    <t>JKT01254</t>
+  </si>
+  <si>
+    <t>JKT01255</t>
+  </si>
+  <si>
+    <t>JKT01256</t>
+  </si>
+  <si>
+    <t>JKT01257</t>
+  </si>
+  <si>
+    <t>JKT01258</t>
+  </si>
+  <si>
+    <t>Jaket Polos Biru Premium</t>
+  </si>
+  <si>
+    <t>Jaket Polos Merah Premium</t>
+  </si>
+  <si>
+    <t>Jaket Polos Maroon Premium</t>
+  </si>
+  <si>
+    <t>Jaket Polos Ungu Premium</t>
+  </si>
+  <si>
+    <t>Jaket Polos Hijau Premium</t>
+  </si>
+  <si>
+    <t>Jaket Polos Kuning Premium</t>
+  </si>
+  <si>
+    <t>Jaket Polos Abu Premium</t>
+  </si>
+  <si>
+    <t>Jaket Polos Orange Premium</t>
+  </si>
+  <si>
+    <t>Jaket Polos Coklat Premium</t>
   </si>
 </sst>
 </file>
@@ -81,8 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +446,7 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -423,25 +474,209 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>45000</v>
+      </c>
+      <c r="G2">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>50000</v>
-      </c>
-      <c r="G2">
-        <v>99000</v>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>45000</v>
+      </c>
+      <c r="G3">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>45000</v>
+      </c>
+      <c r="G4">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>45000</v>
+      </c>
+      <c r="G5">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>45000</v>
+      </c>
+      <c r="G6">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>45000</v>
+      </c>
+      <c r="G7">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>45000</v>
+      </c>
+      <c r="G8">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>45000</v>
+      </c>
+      <c r="G9">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>45000</v>
+      </c>
+      <c r="G10">
+        <v>59000</v>
       </c>
     </row>
   </sheetData>
